--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-549337.0431330519</v>
+        <v>-551119.9489929152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918214</v>
+        <v>6028847.321918219</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.1651078591981</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636452</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>229.3796226433647</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997379</v>
+        <v>66.22713566997371</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>180.9893309631802</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
         <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>86.96444984558478</v>
       </c>
       <c r="C12" t="n">
-        <v>171.4600181765697</v>
+        <v>93.13976518403318</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035624</v>
+        <v>67.87633176035619</v>
       </c>
       <c r="E12" t="n">
-        <v>78.07634665111843</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910136</v>
+        <v>65.50047858910132</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994822</v>
+        <v>134.6105413724854</v>
       </c>
       <c r="H12" t="n">
-        <v>18.3296141878555</v>
+        <v>18.32961418785546</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929284</v>
+        <v>64.54059415929278</v>
       </c>
       <c r="T12" t="n">
-        <v>114.6124383743877</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U12" t="n">
-        <v>146.2749841333384</v>
+        <v>146.2749841333383</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
-        <v>172.1262493566371</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>126.1139619730218</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434532</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392984</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121779</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630861</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437196</v>
+        <v>38.45470665437191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968435</v>
+        <v>41.76513142968428</v>
       </c>
       <c r="S13" t="n">
         <v>122.7587393607691</v>
@@ -1594,7 +1594,7 @@
         <v>146.1409215847546</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D14" t="n">
         <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>332.959491363645</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040937</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997372</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131304</v>
+        <v>148.9709346725166</v>
       </c>
       <c r="X14" t="n">
-        <v>67.54570281307713</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
         <v>306.669204851771</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.29028837994817</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H15" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084447</v>
       </c>
       <c r="S15" t="n">
-        <v>144.1093279635754</v>
+        <v>122.0672416727791</v>
       </c>
       <c r="T15" t="n">
         <v>194.1811721786702</v>
@@ -1743,13 +1743,13 @@
         <v>225.8437179376209</v>
       </c>
       <c r="V15" t="n">
-        <v>210.758500858632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1765,25 +1765,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434526</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D16" t="n">
-        <v>69.04673921392978</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E16" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H16" t="n">
         <v>71.59325136630859</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437191</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968427</v>
       </c>
       <c r="S16" t="n">
         <v>122.7587393607691</v>
@@ -1822,10 +1822,10 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V16" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W16" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X16" t="n">
         <v>146.1409215847546</v>
@@ -1850,10 +1850,10 @@
         <v>195.5455740121179</v>
       </c>
       <c r="E17" t="n">
-        <v>209.3665758565105</v>
+        <v>209.3665758565076</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G17" t="n">
         <v>253.3907575593626</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566583</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V17" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W17" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X17" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y17" t="n">
         <v>227.1004710474885</v>
@@ -1938,10 +1938,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084475</v>
+        <v>4.27645449514333</v>
       </c>
       <c r="S18" t="n">
-        <v>42.49850786849995</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T18" t="n">
         <v>194.1811721786702</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337224</v>
+        <v>73.92688357095736</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062773</v>
+        <v>8.109353490062745</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>63.44737045898052</v>
+        <v>7.608961026935261</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648657</v>
+        <v>43.19000555648654</v>
       </c>
       <c r="T19" t="n">
-        <v>63.4904960034396</v>
+        <v>63.49049600343957</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1136771630372</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V19" t="n">
-        <v>93.00017571526294</v>
+        <v>93.00017571526291</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.4471857435297</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>206.1354241624425</v>
       </c>
       <c r="D20" t="n">
-        <v>195.5455740121179</v>
+        <v>182.1192474049286</v>
       </c>
       <c r="E20" t="n">
-        <v>209.3665758565084</v>
+        <v>222.7929024636967</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G20" t="n">
         <v>253.3907575593626</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566583</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V20" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W20" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X20" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y20" t="n">
         <v>227.1004710474885</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>42.23712868723734</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H21" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285296</v>
+        <v>34.57325905991194</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S21" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T21" t="n">
         <v>194.1811721786702</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.07943415779638</v>
+        <v>20.69451257337221</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935289</v>
+        <v>7.608961026935261</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648657</v>
+        <v>43.19000555648654</v>
       </c>
       <c r="T22" t="n">
-        <v>63.4904960034396</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U22" t="n">
         <v>127.1136771630372</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526291</v>
       </c>
       <c r="W22" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>114.4351147745439</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44718574352973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G23" t="n">
         <v>253.3907575593626</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566583</v>
+        <v>51.8129541556658</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V23" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W23" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X23" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y23" t="n">
         <v>227.1004710474885</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8590221842308</v>
+        <v>47.67452869634052</v>
       </c>
       <c r="H24" t="n">
-        <v>47.99958566710118</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S24" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T24" t="n">
         <v>194.1811721786702</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337224</v>
+        <v>20.69451257337221</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935289</v>
+        <v>7.608961026935261</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>71.08842654642061</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.3274731650516</v>
+        <v>43.19000555648654</v>
       </c>
       <c r="T25" t="n">
-        <v>63.4904960034396</v>
+        <v>63.49049600343957</v>
       </c>
       <c r="U25" t="n">
-        <v>174.9766041571085</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526291</v>
       </c>
       <c r="W25" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X25" t="n">
-        <v>66.57218778047209</v>
+        <v>66.57218778047206</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>59.4471857435297</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>332.9594913636451</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
         <v>23.94276850040937</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084461</v>
+        <v>7.988926598084447</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2713,25 +2713,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434529</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F28" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630862</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437194</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7651314296843</v>
+        <v>41.76513142968431</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2807,10 +2807,10 @@
         <v>332.9594913636451</v>
       </c>
       <c r="H29" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040939</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599484</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S30" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T30" t="n">
         <v>194.1811721786702</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434527</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D31" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228606</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864869</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121778</v>
+        <v>87.17769483121779</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I31" t="n">
         <v>38.45470665437193</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S33" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T33" t="n">
         <v>194.1811721786702</v>
@@ -3199,13 +3199,13 @@
         <v>65.85231421864867</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121778</v>
+        <v>87.17769483121776</v>
       </c>
       <c r="H34" t="n">
         <v>71.59325136630859</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437191</v>
+        <v>38.4547066543719</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968427</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S36" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T36" t="n">
         <v>194.1811721786702</v>
@@ -3424,10 +3424,10 @@
         <v>34.03611070768099</v>
       </c>
       <c r="C37" t="n">
-        <v>21.45095162437153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>2.819603543956049</v>
       </c>
       <c r="E37" t="n">
         <v>0.638093172312864</v>
@@ -3439,10 +3439,10 @@
         <v>20.95055916124404</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334862</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.81324111907642</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.3448448098714</v>
+        <v>56.53160369079532</v>
       </c>
       <c r="T37" t="n">
         <v>76.83209413774836</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2511447716022</v>
+        <v>140.4552752973459</v>
       </c>
       <c r="V37" t="n">
         <v>106.3417738495717</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S39" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T39" t="n">
         <v>194.1811721786702</v>
@@ -3670,19 +3670,19 @@
         <v>0.638093172312864</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>20.95055916124404</v>
       </c>
       <c r="H40" t="n">
-        <v>97.18473426322272</v>
+        <v>5.366115696334861</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.53160369079532</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T40" t="n">
         <v>222.6279636120047</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>237.2685164164223</v>
       </c>
       <c r="V40" t="n">
         <v>106.3417738495717</v>
@@ -3740,16 +3740,16 @@
         <v>236.9379721892242</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967511</v>
       </c>
       <c r="D41" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464265</v>
       </c>
       <c r="E41" t="n">
         <v>236.1345005980054</v>
       </c>
       <c r="F41" t="n">
-        <v>261.0801762674551</v>
+        <v>261.080176267455</v>
       </c>
       <c r="G41" t="n">
         <v>266.7323556936713</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997448</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458035</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958785</v>
       </c>
       <c r="W41" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431566</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042126</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.4420691817973</v>
+        <v>240.4420691817972</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S42" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T42" t="n">
         <v>194.1811721786702</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768088</v>
       </c>
       <c r="C43" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437141</v>
       </c>
       <c r="D43" t="n">
-        <v>2.819603543956021</v>
+        <v>2.819603543955935</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723127503</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7464286355003</v>
+        <v>20.95055916124393</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334834</v>
+        <v>102.1793568154124</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>202.3274731650516</v>
       </c>
       <c r="T43" t="n">
-        <v>173.6453352568247</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.4552752973458</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3417738495717</v>
+        <v>106.3417738495716</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>140.7271288623346</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478082</v>
+        <v>79.91378591478073</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783845</v>
+        <v>72.78878387783837</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9379721892243</v>
+        <v>236.9379721892242</v>
       </c>
       <c r="C44" t="n">
-        <v>219.4770222967513</v>
+        <v>219.4770222967512</v>
       </c>
       <c r="D44" t="n">
-        <v>208.8871721464267</v>
+        <v>208.8871721464266</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1345005980055</v>
+        <v>236.1345005980054</v>
       </c>
       <c r="F44" t="n">
-        <v>261.0801762674552</v>
+        <v>261.0801762674551</v>
       </c>
       <c r="G44" t="n">
-        <v>266.7323556936714</v>
+        <v>266.7323556936713</v>
       </c>
       <c r="H44" t="n">
-        <v>165.2644580656729</v>
+        <v>165.2644580656728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997462</v>
+        <v>65.15455228997456</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4040,7 +4040,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9352312042128</v>
+        <v>223.9352312042127</v>
       </c>
       <c r="Y44" t="n">
         <v>240.4420691817973</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S45" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T45" t="n">
         <v>194.1811721786702</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768102</v>
+        <v>34.03611070768096</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437156</v>
+        <v>21.4509516243715</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956077</v>
+        <v>2.819603543956021</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6380931723128924</v>
+        <v>0.6380931723128356</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124407</v>
+        <v>20.95055916124402</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334891</v>
+        <v>5.366115696334832</v>
       </c>
       <c r="I46" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>202.3274731650516</v>
       </c>
       <c r="T46" t="n">
-        <v>201.4177642724258</v>
+        <v>76.83209413774833</v>
       </c>
       <c r="U46" t="n">
-        <v>140.455275297346</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3417738495717</v>
+        <v>197.785570965135</v>
       </c>
       <c r="W46" t="n">
         <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478087</v>
+        <v>79.91378591478082</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783851</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>661.315102303377</v>
+        <v>1187.730666708447</v>
       </c>
       <c r="C11" t="n">
-        <v>372.7250437511295</v>
+        <v>1187.730666708447</v>
       </c>
       <c r="D11" t="n">
-        <v>372.7250437511295</v>
+        <v>909.8374264898605</v>
       </c>
       <c r="E11" t="n">
-        <v>372.7250437511295</v>
+        <v>604.4216322797806</v>
       </c>
       <c r="F11" t="n">
-        <v>372.7250437511295</v>
+        <v>604.4216322797806</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199299</v>
+        <v>268.0989137306442</v>
       </c>
       <c r="H11" t="n">
         <v>36.40232520199299</v>
@@ -5039,25 +5039,25 @@
         <v>36.40232520199299</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608117</v>
+        <v>257.7009633964342</v>
       </c>
       <c r="K11" t="n">
-        <v>540.7740887507445</v>
+        <v>389.2111020981282</v>
       </c>
       <c r="L11" t="n">
-        <v>740.8258065900723</v>
+        <v>589.2628199374561</v>
       </c>
       <c r="M11" t="n">
-        <v>995.0913259697908</v>
+        <v>843.5283393171748</v>
       </c>
       <c r="N11" t="n">
-        <v>1258.084935658322</v>
+        <v>1106.521949005707</v>
       </c>
       <c r="O11" t="n">
-        <v>1493.087082418991</v>
+        <v>1341.524095766375</v>
       </c>
       <c r="P11" t="n">
-        <v>1743.578934043205</v>
+        <v>1533.387093289899</v>
       </c>
       <c r="Q11" t="n">
         <v>1820.116260099649</v>
@@ -5075,16 +5075,16 @@
         <v>1753.220163463312</v>
       </c>
       <c r="V11" t="n">
-        <v>1570.402657439898</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.402657439898</v>
+        <v>1480.823966581362</v>
       </c>
       <c r="X11" t="n">
-        <v>1277.309357566982</v>
+        <v>1187.730666708447</v>
       </c>
       <c r="Y11" t="n">
-        <v>967.5424839793346</v>
+        <v>1187.730666708447</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>498.5569491867905</v>
+        <v>578.9294075749551</v>
       </c>
       <c r="C12" t="n">
-        <v>325.3650116346998</v>
+        <v>484.8488366819923</v>
       </c>
       <c r="D12" t="n">
-        <v>256.8030603616127</v>
+        <v>416.2868854089053</v>
       </c>
       <c r="E12" t="n">
-        <v>177.9380637443214</v>
+        <v>257.0494304034498</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7759641593705</v>
+        <v>190.8873308184989</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790764</v>
+        <v>54.91708700790759</v>
       </c>
       <c r="H12" t="n">
         <v>36.40232520199299</v>
@@ -5118,25 +5118,25 @@
         <v>36.40232520199299</v>
       </c>
       <c r="J12" t="n">
-        <v>174.5128983801548</v>
+        <v>174.5128983801549</v>
       </c>
       <c r="K12" t="n">
-        <v>275.3661243424328</v>
+        <v>537.1867089848859</v>
       </c>
       <c r="L12" t="n">
-        <v>688.7495821675539</v>
+        <v>719.1188585074405</v>
       </c>
       <c r="M12" t="n">
-        <v>920.4126876475265</v>
+        <v>950.7819639874132</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.615871110217</v>
+        <v>1206.62128484799</v>
       </c>
       <c r="O12" t="n">
-        <v>1623.09464548488</v>
+        <v>1415.118130626389</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.098679385388</v>
+        <v>1563.122164526897</v>
       </c>
       <c r="Q12" t="n">
         <v>1820.116260099649</v>
@@ -5145,25 +5145,25 @@
         <v>1820.116260099649</v>
       </c>
       <c r="S12" t="n">
-        <v>1754.923740746828</v>
+        <v>1754.923740746829</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.15360097472</v>
+        <v>1558.781142586556</v>
       </c>
       <c r="U12" t="n">
-        <v>1491.401091749125</v>
+        <v>1411.028633360962</v>
       </c>
       <c r="V12" t="n">
         <v>1256.248983517383</v>
       </c>
       <c r="W12" t="n">
-        <v>1082.384085177345</v>
+        <v>1002.011626789181</v>
       </c>
       <c r="X12" t="n">
-        <v>874.5325849718124</v>
+        <v>794.1601265836487</v>
       </c>
       <c r="Y12" t="n">
-        <v>666.7722862068586</v>
+        <v>666.772286206859</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334158</v>
+        <v>527.986186233416</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936729</v>
+        <v>439.4224616936733</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695014</v>
+        <v>369.6782806695018</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752727</v>
+        <v>302.1376454752728</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655267</v>
+        <v>235.6201563655266</v>
       </c>
       <c r="G13" t="n">
         <v>147.5618787582359</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671214</v>
+        <v>75.24546323671208</v>
       </c>
       <c r="I13" t="n">
         <v>36.40232520199299</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047553</v>
+        <v>109.8596221047546</v>
       </c>
       <c r="K13" t="n">
-        <v>309.734095818047</v>
+        <v>309.7340958180463</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013561</v>
+        <v>599.0017100013555</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035645</v>
+        <v>910.100887703564</v>
       </c>
       <c r="N13" t="n">
-        <v>1221.110485701271</v>
+        <v>1221.11048570127</v>
       </c>
       <c r="O13" t="n">
         <v>1498.375280567426</v>
@@ -5224,7 +5224,7 @@
         <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028484</v>
+        <v>1653.930532028485</v>
       </c>
       <c r="T13" t="n">
         <v>1509.426259495432</v>
@@ -5236,13 +5236,13 @@
         <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407104</v>
+        <v>917.2994059407106</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308572</v>
+        <v>769.6823134308574</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754913</v>
+        <v>629.2621926754915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>922.2800995187342</v>
+        <v>1258.271444971914</v>
       </c>
       <c r="C14" t="n">
-        <v>922.2800995187342</v>
+        <v>969.681386419667</v>
       </c>
       <c r="D14" t="n">
-        <v>644.386859300148</v>
+        <v>691.7881462010806</v>
       </c>
       <c r="E14" t="n">
-        <v>644.386859300148</v>
+        <v>386.3723519910006</v>
       </c>
       <c r="F14" t="n">
-        <v>644.386859300148</v>
+        <v>386.3723519910006</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0641407510116</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="H14" t="n">
-        <v>74.23424808874225</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J14" t="n">
         <v>271.3482716363054</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834523</v>
+        <v>723.7623687834525</v>
       </c>
       <c r="L14" t="n">
-        <v>923.8140866227801</v>
+        <v>923.8140866227805</v>
       </c>
       <c r="M14" t="n">
         <v>1178.079606002499</v>
       </c>
       <c r="N14" t="n">
-        <v>1441.07321569103</v>
+        <v>1496.101742998562</v>
       </c>
       <c r="O14" t="n">
-        <v>1731.103889759234</v>
+        <v>1731.10388975923</v>
       </c>
       <c r="P14" t="n">
-        <v>2215.752505283457</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q14" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456871</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.876799739751</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.588963259168</v>
+        <v>2262.297738976284</v>
       </c>
       <c r="V14" t="n">
-        <v>1878.898534303761</v>
+        <v>2011.607310020878</v>
       </c>
       <c r="W14" t="n">
-        <v>1606.502337421811</v>
+        <v>1861.131618432478</v>
       </c>
       <c r="X14" t="n">
-        <v>1538.27435478234</v>
+        <v>1568.038318559562</v>
       </c>
       <c r="Y14" t="n">
-        <v>1228.507481194692</v>
+        <v>1258.271444971914</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>873.627638428408</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C15" t="n">
-        <v>699.174609147281</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D15" t="n">
-        <v>550.2401994860297</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E15" t="n">
-        <v>391.0027444805743</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F15" t="n">
-        <v>244.4681865074593</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559965</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191765</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J15" t="n">
         <v>188.160206620026</v>
       </c>
       <c r="K15" t="n">
-        <v>550.8340172247568</v>
+        <v>550.834017224757</v>
       </c>
       <c r="L15" t="n">
-        <v>732.7661667473113</v>
+        <v>732.7661667473116</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4292722272839</v>
+        <v>964.4292722272843</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.708555888011</v>
+        <v>1573.708555888007</v>
       </c>
       <c r="O15" t="n">
-        <v>1782.20540166641</v>
+        <v>1782.205401666406</v>
       </c>
       <c r="P15" t="n">
-        <v>2245.487576520455</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.41204926686</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S15" t="n">
-        <v>2348.847071525875</v>
+        <v>2371.111805152938</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.704473365602</v>
+        <v>2174.969206992665</v>
       </c>
       <c r="U15" t="n">
-        <v>1924.579505751843</v>
+        <v>1946.844239378907</v>
       </c>
       <c r="V15" t="n">
         <v>1711.692131147164</v>
@@ -5397,10 +5397,10 @@
         <v>1457.454774418963</v>
       </c>
       <c r="X15" t="n">
-        <v>1249.60327421343</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y15" t="n">
-        <v>1041.842975448476</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732871</v>
+        <v>541.6334944732873</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335444</v>
+        <v>453.0697699335446</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093729</v>
+        <v>383.3255889093731</v>
       </c>
       <c r="E16" t="n">
-        <v>315.784953715144</v>
+        <v>315.7849537151442</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053979</v>
+        <v>249.267464605398</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981072</v>
+        <v>161.209186998107</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658325</v>
+        <v>88.89277147658319</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J16" t="n">
-        <v>123.5069303446256</v>
+        <v>123.5069303446257</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579175</v>
+        <v>323.3814040579176</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412266</v>
+        <v>612.6490182412268</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434351</v>
+        <v>923.7481959434353</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941141</v>
+        <v>1234.757793941142</v>
       </c>
       <c r="O16" t="n">
-        <v>1512.022588807296</v>
+        <v>1512.022588807297</v>
       </c>
       <c r="P16" t="n">
         <v>1737.118934309929</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.76356833952</v>
+        <v>1833.763568339521</v>
       </c>
       <c r="R16" t="n">
         <v>1791.576566895395</v>
@@ -5473,13 +5473,13 @@
         <v>1139.991425829378</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805817</v>
+        <v>930.9467141805819</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707286</v>
+        <v>783.3296216707288</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153626</v>
+        <v>642.9095009153629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1326.918087638776</v>
+        <v>1326.918087638773</v>
       </c>
       <c r="C17" t="n">
-        <v>1118.700487474693</v>
+        <v>1118.70048747469</v>
       </c>
       <c r="D17" t="n">
-        <v>921.1797056442708</v>
+        <v>921.1797056442679</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902198</v>
+        <v>709.6983158902206</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769406</v>
+        <v>459.4573278769413</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159693</v>
+        <v>203.5070677159692</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J17" t="n">
-        <v>270.288577939176</v>
+        <v>271.3482716363054</v>
       </c>
       <c r="K17" t="n">
-        <v>401.7987166408699</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L17" t="n">
-        <v>601.8504344801977</v>
+        <v>978.8426139303123</v>
       </c>
       <c r="M17" t="n">
-        <v>856.1159538599162</v>
+        <v>1233.108133310031</v>
       </c>
       <c r="N17" t="n">
-        <v>1119.109563548448</v>
+        <v>1496.101742998562</v>
       </c>
       <c r="O17" t="n">
-        <v>1731.103889759234</v>
+        <v>1731.103889759231</v>
       </c>
       <c r="P17" t="n">
-        <v>2215.752505283457</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="T17" t="n">
-        <v>2450.145354764252</v>
+        <v>2450.145354764249</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.229976671833</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V17" t="n">
-        <v>2186.912006104591</v>
+        <v>2186.912006104587</v>
       </c>
       <c r="W17" t="n">
-        <v>1994.888267610805</v>
+        <v>1994.888267610801</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.167426126053</v>
+        <v>1782.16742612605</v>
       </c>
       <c r="Y17" t="n">
-        <v>1552.77301092657</v>
+        <v>1552.773010926567</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>954.0000968165722</v>
+        <v>855.1128766224934</v>
       </c>
       <c r="C18" t="n">
-        <v>779.5470675354452</v>
+        <v>680.6598473413665</v>
       </c>
       <c r="D18" t="n">
-        <v>630.6126578741939</v>
+        <v>531.7254376801152</v>
       </c>
       <c r="E18" t="n">
-        <v>471.3752028687385</v>
+        <v>372.4879826746596</v>
       </c>
       <c r="F18" t="n">
-        <v>324.8406448956235</v>
+        <v>225.9534247015446</v>
       </c>
       <c r="G18" t="n">
-        <v>187.6093093559965</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191765</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J18" t="n">
         <v>188.160206620026</v>
@@ -5598,46 +5598,46 @@
         <v>550.8340172247568</v>
       </c>
       <c r="L18" t="n">
-        <v>732.7661667473113</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M18" t="n">
-        <v>964.4292722272839</v>
+        <v>1636.783513378854</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.793486070353</v>
+        <v>1888.986696841545</v>
       </c>
       <c r="O18" t="n">
-        <v>1792.290331848752</v>
+        <v>2097.483542619944</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.487576520455</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.41204926686</v>
+        <v>2498.162021088009</v>
       </c>
       <c r="S18" t="n">
-        <v>2451.484263541102</v>
+        <v>2352.597043347024</v>
       </c>
       <c r="T18" t="n">
-        <v>2255.341665380829</v>
+        <v>2156.454445186751</v>
       </c>
       <c r="U18" t="n">
-        <v>2027.216697767071</v>
+        <v>1928.329477572992</v>
       </c>
       <c r="V18" t="n">
-        <v>1792.064589535328</v>
+        <v>1693.17736934125</v>
       </c>
       <c r="W18" t="n">
-        <v>1537.827232807127</v>
+        <v>1438.940012613048</v>
       </c>
       <c r="X18" t="n">
-        <v>1329.975732601594</v>
+        <v>1231.088512407515</v>
       </c>
       <c r="Y18" t="n">
-        <v>1122.21543383664</v>
+        <v>1023.328213642561</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>280.4417073036295</v>
+        <v>65.92671881256915</v>
       </c>
       <c r="C19" t="n">
-        <v>272.250441152051</v>
+        <v>57.73545266099062</v>
       </c>
       <c r="D19" t="n">
-        <v>272.250441152051</v>
+        <v>57.73545266099062</v>
       </c>
       <c r="E19" t="n">
-        <v>272.250441152051</v>
+        <v>57.73545266099062</v>
       </c>
       <c r="F19" t="n">
-        <v>272.250441152051</v>
+        <v>57.73545266099062</v>
       </c>
       <c r="G19" t="n">
-        <v>208.1621881631818</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47331425349371</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349371</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K19" t="n">
-        <v>171.1510606889163</v>
+        <v>171.1510606889162</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059856</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419543</v>
       </c>
       <c r="N19" t="n">
         <v>846.208311173421</v>
@@ -5704,19 +5704,19 @@
         <v>1101.136863789317</v>
       </c>
       <c r="U19" t="n">
-        <v>972.7392100892791</v>
+        <v>811.9942933129511</v>
       </c>
       <c r="V19" t="n">
-        <v>878.7996386597206</v>
+        <v>718.0547218833926</v>
       </c>
       <c r="W19" t="n">
-        <v>750.1273853990883</v>
+        <v>428.637551846432</v>
       </c>
       <c r="X19" t="n">
-        <v>522.137834501071</v>
+        <v>200.6480009484147</v>
       </c>
       <c r="Y19" t="n">
-        <v>301.3452553575409</v>
+        <v>140.600338581213</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.918087638775</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C20" t="n">
         <v>1118.700487474691</v>
       </c>
       <c r="D20" t="n">
-        <v>921.1797056442692</v>
+        <v>934.7416517121366</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902209</v>
+        <v>709.6983158902207</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769417</v>
+        <v>459.4573278769415</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159693</v>
+        <v>203.5070677159692</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186412</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186412</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J20" t="n">
         <v>271.3482716363054</v>
       </c>
       <c r="K20" t="n">
-        <v>402.8584103379992</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L20" t="n">
-        <v>602.910128177327</v>
+        <v>978.8426139303123</v>
       </c>
       <c r="M20" t="n">
-        <v>857.1756475570455</v>
+        <v>1233.108133310031</v>
       </c>
       <c r="N20" t="n">
-        <v>1120.169257245577</v>
+        <v>1496.101742998562</v>
       </c>
       <c r="O20" t="n">
-        <v>1731.103889759232</v>
+        <v>1731.103889759231</v>
       </c>
       <c r="P20" t="n">
-        <v>2215.752505283455</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093206</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093206</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093206</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.14535476425</v>
+        <v>2450.145354764249</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.229976671831</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104589</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610803</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.167426126051</v>
+        <v>1782.16742612605</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.773010926568</v>
+        <v>1552.773010926567</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.43252762769</v>
+        <v>851.3629048013408</v>
       </c>
       <c r="C21" t="n">
-        <v>684.979498346563</v>
+        <v>676.9098755202139</v>
       </c>
       <c r="D21" t="n">
-        <v>536.0450886853117</v>
+        <v>527.9754658589626</v>
       </c>
       <c r="E21" t="n">
-        <v>376.8076336798562</v>
+        <v>368.7380108535071</v>
       </c>
       <c r="F21" t="n">
-        <v>230.2730757067412</v>
+        <v>222.2034528803921</v>
       </c>
       <c r="G21" t="n">
-        <v>187.6093093559964</v>
+        <v>84.97211734076504</v>
       </c>
       <c r="H21" t="n">
-        <v>88.72208916191761</v>
+        <v>84.97211734076504</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186412</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J21" t="n">
-        <v>188.160206620026</v>
+        <v>63.33008163302121</v>
       </c>
       <c r="K21" t="n">
-        <v>550.8340172247567</v>
+        <v>164.1833075952993</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.898108597736</v>
+        <v>713.2473989682783</v>
       </c>
       <c r="M21" t="n">
-        <v>1331.561214077708</v>
+        <v>1246.859817294892</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.764397540399</v>
+        <v>1499.063000757583</v>
       </c>
       <c r="O21" t="n">
-        <v>1792.261243318798</v>
+        <v>2097.483542619944</v>
       </c>
       <c r="P21" t="n">
-        <v>2255.543418172843</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093206</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R21" t="n">
-        <v>2502.481672093206</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S21" t="n">
-        <v>2356.91669435222</v>
+        <v>2348.847071525871</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.774096191948</v>
+        <v>2152.704473365598</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.649128578189</v>
+        <v>1924.57950575184</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.497020346446</v>
+        <v>1689.427397520097</v>
       </c>
       <c r="W21" t="n">
-        <v>1443.259663618245</v>
+        <v>1435.190040791896</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.408163412712</v>
+        <v>1227.338540586363</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.647864647758</v>
+        <v>1019.578241821409</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.4670390365345</v>
+        <v>232.0953164005271</v>
       </c>
       <c r="C22" t="n">
-        <v>213.275772884956</v>
+        <v>63.15913347262016</v>
       </c>
       <c r="D22" t="n">
-        <v>63.15913347262023</v>
+        <v>63.15913347262016</v>
       </c>
       <c r="E22" t="n">
-        <v>63.15913347262023</v>
+        <v>63.15913347262016</v>
       </c>
       <c r="F22" t="n">
-        <v>63.15913347262023</v>
+        <v>63.15913347262016</v>
       </c>
       <c r="G22" t="n">
-        <v>55.47331425349368</v>
+        <v>55.47331425349363</v>
       </c>
       <c r="H22" t="n">
-        <v>55.47331425349368</v>
+        <v>55.47331425349363</v>
       </c>
       <c r="I22" t="n">
-        <v>55.47331425349368</v>
+        <v>55.47331425349363</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186412</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889162</v>
@@ -5920,7 +5920,7 @@
         <v>613.9717596419543</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734208</v>
+        <v>846.208311173421</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573336</v>
@@ -5938,22 +5938,22 @@
         <v>1165.268677934205</v>
       </c>
       <c r="T22" t="n">
-        <v>1101.136863789317</v>
+        <v>940.3919470129886</v>
       </c>
       <c r="U22" t="n">
-        <v>972.7392100892791</v>
+        <v>811.9942933129511</v>
       </c>
       <c r="V22" t="n">
-        <v>718.0547218833923</v>
+        <v>718.0547218833926</v>
       </c>
       <c r="W22" t="n">
-        <v>589.38246862276</v>
+        <v>589.3824686227604</v>
       </c>
       <c r="X22" t="n">
-        <v>361.3929177247427</v>
+        <v>473.7914435979685</v>
       </c>
       <c r="Y22" t="n">
-        <v>301.345255357541</v>
+        <v>252.9988644544384</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116191</v>
+        <v>1340.75680811619</v>
       </c>
       <c r="C23" t="n">
         <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216853</v>
+        <v>935.018426121685</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997694</v>
+        <v>709.975090299769</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864902</v>
+        <v>459.7341022864898</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255176</v>
+        <v>203.7838421255175</v>
       </c>
       <c r="H23" t="n">
         <v>50.32640785141241</v>
@@ -5990,16 +5990,16 @@
         <v>271.6250460458537</v>
       </c>
       <c r="K23" t="n">
-        <v>403.1351847475476</v>
+        <v>724.0391431930007</v>
       </c>
       <c r="L23" t="n">
-        <v>603.1869025868754</v>
+        <v>968.510144551501</v>
       </c>
       <c r="M23" t="n">
-        <v>1222.77566393122</v>
+        <v>1222.775663931219</v>
       </c>
       <c r="N23" t="n">
-        <v>1485.769273619752</v>
+        <v>1485.769273619751</v>
       </c>
       <c r="O23" t="n">
         <v>1720.77142038042</v>
@@ -6008,22 +6008,22 @@
         <v>2205.420035904643</v>
       </c>
       <c r="Q23" t="n">
-        <v>2492.149202714394</v>
+        <v>2492.149202714393</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241666</v>
+        <v>2463.984075241665</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149247</v>
+        <v>2371.068697149246</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582005</v>
+        <v>2200.750726582004</v>
       </c>
       <c r="W23" t="n">
         <v>2008.726988088219</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787571</v>
+        <v>865.2016252787566</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976301</v>
+        <v>690.7485959976296</v>
       </c>
       <c r="D24" t="n">
-        <v>541.8141863363788</v>
+        <v>541.8141863363784</v>
       </c>
       <c r="E24" t="n">
-        <v>382.5767313309233</v>
+        <v>382.5767313309229</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578083</v>
+        <v>236.0421733578079</v>
       </c>
       <c r="G24" t="n">
-        <v>98.81083781818128</v>
+        <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141241</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
         <v>50.32640785141241</v>
@@ -6078,7 +6078,7 @@
         <v>1335.344092902733</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.547276365424</v>
+        <v>1587.547276365423</v>
       </c>
       <c r="O24" t="n">
         <v>1796.044122143823</v>
@@ -6087,16 +6087,16 @@
         <v>2259.326296997868</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744273</v>
+        <v>2508.250769744272</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003288</v>
+        <v>2362.685792003287</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843015</v>
+        <v>2166.543193843014</v>
       </c>
       <c r="U24" t="n">
         <v>1938.418226229256</v>
@@ -6105,7 +6105,7 @@
         <v>1703.266117997513</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269312</v>
+        <v>1449.028761269311</v>
       </c>
       <c r="X24" t="n">
         <v>1241.177261063779</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.62717403374708</v>
+        <v>602.2083152658352</v>
       </c>
       <c r="C25" t="n">
-        <v>63.43590788216853</v>
+        <v>433.2721323379283</v>
       </c>
       <c r="D25" t="n">
-        <v>63.43590788216853</v>
+        <v>283.1554929255925</v>
       </c>
       <c r="E25" t="n">
-        <v>63.43590788216853</v>
+        <v>135.2423993431994</v>
       </c>
       <c r="F25" t="n">
-        <v>63.43590788216853</v>
+        <v>135.2423993431994</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75008866304197</v>
+        <v>127.5565801240729</v>
       </c>
       <c r="H25" t="n">
-        <v>55.75008866304197</v>
+        <v>55.75008866304195</v>
       </c>
       <c r="I25" t="n">
-        <v>55.75008866304197</v>
+        <v>55.75008866304195</v>
       </c>
       <c r="J25" t="n">
         <v>50.32640785141241</v>
       </c>
       <c r="K25" t="n">
-        <v>171.4278350984645</v>
+        <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
         <v>381.9224028155339</v>
@@ -6157,7 +6157,7 @@
         <v>614.2485340515027</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829692</v>
+        <v>846.4850855829693</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6172,25 +6172,25 @@
         <v>1209.171720582629</v>
       </c>
       <c r="S25" t="n">
-        <v>1004.800535567425</v>
+        <v>1165.545452343754</v>
       </c>
       <c r="T25" t="n">
-        <v>940.6687214225366</v>
+        <v>1101.413638198865</v>
       </c>
       <c r="U25" t="n">
-        <v>763.9246768193967</v>
+        <v>973.0159844988278</v>
       </c>
       <c r="V25" t="n">
-        <v>509.2401886135098</v>
+        <v>879.0764130692694</v>
       </c>
       <c r="W25" t="n">
-        <v>380.5679353528776</v>
+        <v>750.4041598086371</v>
       </c>
       <c r="X25" t="n">
-        <v>313.3233012311886</v>
+        <v>683.1595256869482</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.53072208765843</v>
+        <v>623.1118633197465</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>998.4591754239841</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225405</v>
+        <v>667.8457290225406</v>
       </c>
       <c r="G26" t="n">
-        <v>331.523010473404</v>
+        <v>331.5230104734041</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113446</v>
+        <v>97.69311781113447</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586975</v>
+        <v>294.8071413586976</v>
       </c>
       <c r="K26" t="n">
         <v>747.2212385058447</v>
@@ -6233,25 +6233,25 @@
         <v>1360.757558750119</v>
       </c>
       <c r="M26" t="n">
-        <v>1615.023078129837</v>
+        <v>2060.041476287741</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811828</v>
+        <v>2756.008541144137</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022614</v>
+        <v>3368.002867354924</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.524801546837</v>
+        <v>3598.88783215637</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356588</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212815</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576478</v>
       </c>
       <c r="T26" t="n">
         <v>3475.820285859358</v>
@@ -6300,7 +6300,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J27" t="n">
         <v>211.6190763424182</v>
@@ -6309,16 +6309,16 @@
         <v>574.2928869471491</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.356978320128</v>
+        <v>756.2250364697037</v>
       </c>
       <c r="M27" t="n">
-        <v>1447.60143416294</v>
+        <v>1448.936155062176</v>
       </c>
       <c r="N27" t="n">
-        <v>1699.804617625631</v>
+        <v>1701.139338524867</v>
       </c>
       <c r="O27" t="n">
-        <v>1908.30146340403</v>
+        <v>1909.636184303266</v>
       </c>
       <c r="P27" t="n">
         <v>2371.583638258076</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956791</v>
+        <v>565.0923641956795</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559364</v>
+        <v>476.5286396559367</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317651</v>
       </c>
       <c r="E28" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375362</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277898</v>
+        <v>272.72633432779</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204991</v>
+        <v>184.6680567204993</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J28" t="n">
         <v>146.9658000670176</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803095</v>
+        <v>346.8402737803099</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636186</v>
+        <v>636.1078879636191</v>
       </c>
       <c r="M28" t="n">
-        <v>947.207065665827</v>
+        <v>947.2070656658276</v>
       </c>
       <c r="N28" t="n">
-        <v>1258.216663663533</v>
+        <v>1258.216663663534</v>
       </c>
       <c r="O28" t="n">
         <v>1535.481458529689</v>
@@ -6403,31 +6403,31 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
-        <v>1815.035436617786</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U28" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029734</v>
+        <v>954.4055839029741</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931202</v>
+        <v>806.7884913931209</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377547</v>
+        <v>666.368370637755</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>998.4591754239837</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225406</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734046</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113447</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I29" t="n">
         <v>73.5085031642563</v>
       </c>
       <c r="J29" t="n">
-        <v>127.4014923383445</v>
+        <v>127.5844184718412</v>
       </c>
       <c r="K29" t="n">
-        <v>579.8155894854915</v>
+        <v>259.0945571735351</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.351909729765</v>
+        <v>872.630877417809</v>
       </c>
       <c r="M29" t="n">
-        <v>1892.635827267388</v>
+        <v>1571.914794955432</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.602892123784</v>
+        <v>2267.881859811828</v>
       </c>
       <c r="O29" t="n">
-        <v>3200.59721833457</v>
+        <v>2879.876186022614</v>
       </c>
       <c r="P29" t="n">
-        <v>3574.716642300142</v>
+        <v>3364.524801546837</v>
       </c>
       <c r="Q29" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356588</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576478</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859359</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V29" t="n">
         <v>3051.842020423368</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541419</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668503</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6540,25 +6540,25 @@
         <v>73.5085031642563</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6190763424181</v>
+        <v>86.78895135541342</v>
       </c>
       <c r="K30" t="n">
-        <v>574.292886947149</v>
+        <v>449.4627619601443</v>
       </c>
       <c r="L30" t="n">
-        <v>1123.356978320128</v>
+        <v>998.5268533331234</v>
       </c>
       <c r="M30" t="n">
-        <v>1447.601434162941</v>
+        <v>1265.654252937469</v>
       </c>
       <c r="N30" t="n">
-        <v>1699.804617625631</v>
+        <v>1517.857436400159</v>
       </c>
       <c r="O30" t="n">
-        <v>1908.30146340403</v>
+        <v>2116.277978262521</v>
       </c>
       <c r="P30" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.577733830828</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956787</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559359</v>
+        <v>476.5286396559366</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317644</v>
+        <v>406.784458631765</v>
       </c>
       <c r="E31" t="n">
         <v>339.2438234375361</v>
@@ -6619,19 +6619,19 @@
         <v>73.5085031642563</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9658000670179</v>
+        <v>146.9658000670181</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803099</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636191</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658271</v>
+        <v>947.2070656658275</v>
       </c>
       <c r="N31" t="n">
-        <v>1258.216663663533</v>
+        <v>1258.216663663534</v>
       </c>
       <c r="O31" t="n">
         <v>1535.481458529689</v>
@@ -6649,7 +6649,7 @@
         <v>1691.036709990747</v>
       </c>
       <c r="T31" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U31" t="n">
         <v>1337.762325369493</v>
@@ -6658,13 +6658,13 @@
         <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029736</v>
+        <v>954.4055839029738</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931205</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377542</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404898</v>
       </c>
       <c r="C32" t="n">
         <v>1581.76820985265</v>
@@ -6683,40 +6683,40 @@
         <v>1303.874969634064</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239837</v>
+        <v>998.4591754239841</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225406</v>
+        <v>667.845729022541</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734042</v>
+        <v>331.5230104734046</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113446</v>
+        <v>97.69311781113441</v>
       </c>
       <c r="I32" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J32" t="n">
         <v>294.8071413586975</v>
       </c>
       <c r="K32" t="n">
-        <v>426.3172800603915</v>
+        <v>577.6752782633025</v>
       </c>
       <c r="L32" t="n">
-        <v>1039.853600304665</v>
+        <v>1191.211598507576</v>
       </c>
       <c r="M32" t="n">
-        <v>1739.137517842288</v>
+        <v>1890.495516045199</v>
       </c>
       <c r="N32" t="n">
-        <v>2435.104582698684</v>
+        <v>2586.462580901595</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.876186022614</v>
+        <v>3198.456907112381</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.524801546837</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
         <v>3651.253968356587</v>
@@ -6731,7 +6731,7 @@
         <v>3475.820285859358</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V32" t="n">
         <v>3051.842020423368</v>
@@ -6774,28 +6774,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J33" t="n">
-        <v>86.78895135541339</v>
+        <v>86.7889513554134</v>
       </c>
       <c r="K33" t="n">
-        <v>449.4627619601442</v>
+        <v>449.4627619601443</v>
       </c>
       <c r="L33" t="n">
-        <v>998.5268533331233</v>
+        <v>998.5268533331234</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.189958813096</v>
+        <v>1265.654252937469</v>
       </c>
       <c r="N33" t="n">
-        <v>1482.393142275786</v>
+        <v>1517.857436400159</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.813684138147</v>
+        <v>2116.277978262521</v>
       </c>
       <c r="P33" t="n">
-        <v>2544.095858992193</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956791</v>
+        <v>565.0923641956796</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559364</v>
+        <v>476.5286396559368</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317653</v>
       </c>
       <c r="E34" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375364</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277903</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204992</v>
+        <v>184.6680567204996</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I34" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9658000670175</v>
+        <v>146.9658000670176</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803094</v>
+        <v>346.8402737803095</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636185</v>
+        <v>636.1078879636186</v>
       </c>
       <c r="M34" t="n">
         <v>947.207065665827</v>
@@ -6877,31 +6877,31 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q34" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R34" t="n">
         <v>1815.035436617787</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029736</v>
+        <v>954.4055839029741</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931205</v>
+        <v>806.7884913931209</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377547</v>
+        <v>666.3683706377551</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100904</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363475</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712413</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I35" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J35" t="n">
         <v>107.7947583065976</v>
       </c>
       <c r="K35" t="n">
-        <v>560.2088554537446</v>
+        <v>239.3048970082915</v>
       </c>
       <c r="L35" t="n">
-        <v>794.4572190124601</v>
+        <v>852.8412172525653</v>
       </c>
       <c r="M35" t="n">
-        <v>1048.722738392179</v>
+        <v>1519.875610267369</v>
       </c>
       <c r="N35" t="n">
-        <v>1311.71634808071</v>
+        <v>2186.910003282173</v>
       </c>
       <c r="O35" t="n">
-        <v>1923.710674291496</v>
+        <v>2421.912150042841</v>
       </c>
       <c r="P35" t="n">
-        <v>2408.359289815719</v>
+        <v>2587.980044477296</v>
       </c>
       <c r="Q35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.392401899181</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.521624947871</v>
+        <v>1664.52162494787</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256291</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J36" t="n">
         <v>192.0123423106712</v>
       </c>
       <c r="K36" t="n">
-        <v>292.8655682729492</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L36" t="n">
-        <v>841.9296596459283</v>
+        <v>1103.750244288381</v>
       </c>
       <c r="M36" t="n">
-        <v>1073.592765125901</v>
+        <v>1335.413349768354</v>
       </c>
       <c r="N36" t="n">
-        <v>1325.795948588591</v>
+        <v>1587.616533231044</v>
       </c>
       <c r="O36" t="n">
-        <v>1924.216490450953</v>
+        <v>1888.694729372283</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.498665304998</v>
+        <v>2351.976904226328</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.970999799081</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.9130748622828</v>
+        <v>497.9727825323158</v>
       </c>
       <c r="C37" t="n">
-        <v>231.2454469588772</v>
+        <v>329.0365996044089</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654149</v>
+        <v>326.1885152165746</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864972</v>
+        <v>325.5439766586828</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864972</v>
+        <v>325.5439766586828</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769613</v>
+        <v>304.3817956877292</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9017691325094</v>
+        <v>151.6929217780411</v>
       </c>
       <c r="I37" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J37" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K37" t="n">
         <v>175.0031963795615</v>
@@ -7105,7 +7105,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
@@ -7120,25 +7120,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S37" t="n">
-        <v>1057.853299227492</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T37" t="n">
-        <v>980.2451233307767</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U37" t="n">
-        <v>691.1025528544108</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V37" t="n">
-        <v>583.6866196730252</v>
+        <v>828.7463273430583</v>
       </c>
       <c r="W37" t="n">
-        <v>441.538004660566</v>
+        <v>686.5977123305991</v>
       </c>
       <c r="X37" t="n">
-        <v>360.81700878705</v>
+        <v>605.876716457083</v>
       </c>
       <c r="Y37" t="n">
-        <v>287.2929846680212</v>
+        <v>532.3526923380542</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>1425.190339908249</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.496377992338</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100892</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712405</v>
+        <v>490.2621870712401</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J38" t="n">
-        <v>117.8202141697577</v>
+        <v>107.7947583065976</v>
       </c>
       <c r="K38" t="n">
-        <v>570.2343113169047</v>
+        <v>269.8759831000195</v>
       </c>
       <c r="L38" t="n">
-        <v>770.2860291562325</v>
+        <v>883.4123033442934</v>
       </c>
       <c r="M38" t="n">
-        <v>1024.551548535951</v>
+        <v>1550.446696359097</v>
       </c>
       <c r="N38" t="n">
-        <v>1287.545158224483</v>
+        <v>2217.4810893739</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.539484435269</v>
+        <v>2452.483236134569</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.188099959492</v>
+        <v>2618.551130569024</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.917266769242</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R38" t="n">
         <v>2695.088456625469</v>
@@ -7217,7 +7217,7 @@
         <v>1907.39240189918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J39" t="n">
         <v>192.0123423106712</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350.7042275078142</v>
+        <v>105.6445198377814</v>
       </c>
       <c r="C40" t="n">
-        <v>329.0365996044086</v>
+        <v>83.97689193437586</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1885152165742</v>
+        <v>81.12880754654147</v>
       </c>
       <c r="E40" t="n">
-        <v>325.5439766586824</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="F40" t="n">
-        <v>178.6540291607721</v>
+        <v>80.48426898864969</v>
       </c>
       <c r="G40" t="n">
-        <v>157.4918481898185</v>
+        <v>59.32208801769611</v>
       </c>
       <c r="H40" t="n">
-        <v>59.32544994413895</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I40" t="n">
-        <v>59.32544994413895</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795615</v>
@@ -7342,7 +7342,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
@@ -7357,25 +7357,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S40" t="n">
-        <v>1155.644451873024</v>
+        <v>1008.375896848523</v>
       </c>
       <c r="T40" t="n">
-        <v>930.7677209518067</v>
+        <v>783.4991659273057</v>
       </c>
       <c r="U40" t="n">
-        <v>788.8937054999421</v>
+        <v>543.8339978299094</v>
       </c>
       <c r="V40" t="n">
-        <v>681.4777723185566</v>
+        <v>436.4180646485239</v>
       </c>
       <c r="W40" t="n">
-        <v>539.3291573060974</v>
+        <v>294.2694496360646</v>
       </c>
       <c r="X40" t="n">
-        <v>458.6081614325814</v>
+        <v>213.5484537625486</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.0841373135526</v>
+        <v>140.0244296435198</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C41" t="n">
         <v>1203.496377992339</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100904</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363475</v>
       </c>
       <c r="F41" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712414</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584415</v>
       </c>
       <c r="H41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J41" t="n">
         <v>107.7947583065976</v>
       </c>
       <c r="K41" t="n">
-        <v>239.3048970082914</v>
+        <v>239.3048970082915</v>
       </c>
       <c r="L41" t="n">
-        <v>852.8412172525652</v>
+        <v>506.4201238941755</v>
       </c>
       <c r="M41" t="n">
-        <v>1519.875610267369</v>
+        <v>1173.454516908979</v>
       </c>
       <c r="N41" t="n">
-        <v>2186.910003282173</v>
+        <v>1840.488909923783</v>
       </c>
       <c r="O41" t="n">
-        <v>2421.912150042841</v>
+        <v>2452.483236134569</v>
       </c>
       <c r="P41" t="n">
         <v>2618.551130569024</v>
@@ -7482,10 +7482,10 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I42" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J42" t="n">
         <v>192.0123423106712</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.9130748622827</v>
+        <v>203.4356724833139</v>
       </c>
       <c r="C43" t="n">
-        <v>231.2454469588772</v>
+        <v>181.7680445799084</v>
       </c>
       <c r="D43" t="n">
-        <v>228.3973625710428</v>
+        <v>178.9199601920741</v>
       </c>
       <c r="E43" t="n">
-        <v>227.752824013151</v>
+        <v>178.2754216341824</v>
       </c>
       <c r="F43" t="n">
-        <v>227.752824013151</v>
+        <v>178.2754216341824</v>
       </c>
       <c r="G43" t="n">
-        <v>59.3220880176961</v>
+        <v>157.1132406632289</v>
       </c>
       <c r="H43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795615</v>
@@ -7579,7 +7579,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7594,25 +7594,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S43" t="n">
-        <v>1008.375896848522</v>
+        <v>1008.375896848523</v>
       </c>
       <c r="T43" t="n">
-        <v>832.9765683062751</v>
+        <v>783.4991659273057</v>
       </c>
       <c r="U43" t="n">
-        <v>691.1025528544105</v>
+        <v>641.6251504754413</v>
       </c>
       <c r="V43" t="n">
-        <v>583.686619673025</v>
+        <v>534.2092172940559</v>
       </c>
       <c r="W43" t="n">
-        <v>441.5380046605658</v>
+        <v>392.0606022815967</v>
       </c>
       <c r="X43" t="n">
-        <v>360.8170087870498</v>
+        <v>311.3396064080808</v>
       </c>
       <c r="Y43" t="n">
-        <v>287.2929846680211</v>
+        <v>237.8155822890521</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908251</v>
+        <v>1425.190339908248</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.496377992341</v>
+        <v>1203.496377992338</v>
       </c>
       <c r="D44" t="n">
-        <v>992.499234410091</v>
+        <v>992.4992344100888</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363482</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F44" t="n">
-        <v>490.262187071242</v>
+        <v>490.2621870712404</v>
       </c>
       <c r="G44" t="n">
-        <v>220.8355651584417</v>
+        <v>220.8355651584415</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250943</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250943</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2004073269507</v>
+        <v>107.7947583065976</v>
       </c>
       <c r="K44" t="n">
-        <v>727.6145044740977</v>
+        <v>499.5016198579526</v>
       </c>
       <c r="L44" t="n">
-        <v>1004.649059765767</v>
+        <v>1113.037940102226</v>
       </c>
       <c r="M44" t="n">
-        <v>1258.914579145485</v>
+        <v>1367.303459481945</v>
       </c>
       <c r="N44" t="n">
-        <v>1521.908188834017</v>
+        <v>1630.297069170477</v>
       </c>
       <c r="O44" t="n">
-        <v>2133.902515044803</v>
+        <v>2242.291395381263</v>
       </c>
       <c r="P44" t="n">
-        <v>2618.551130569026</v>
+        <v>2408.359289815719</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.088456625471</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.088456625471</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.088456625471</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544686</v>
       </c>
       <c r="U44" t="n">
-        <v>2522.884037700443</v>
+        <v>2522.88403770044</v>
       </c>
       <c r="V44" t="n">
-        <v>2339.089705381373</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W44" t="n">
-        <v>2133.58960513576</v>
+        <v>2133.589605135758</v>
       </c>
       <c r="X44" t="n">
-        <v>1907.392401899182</v>
+        <v>1907.392401899179</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.521624947871</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="45">
@@ -7710,40 +7710,40 @@
         <v>634.4647935648393</v>
       </c>
       <c r="E45" t="n">
-        <v>475.2273385593838</v>
+        <v>475.2273385593837</v>
       </c>
       <c r="F45" t="n">
-        <v>328.6927805862688</v>
+        <v>328.6927805862687</v>
       </c>
       <c r="G45" t="n">
-        <v>191.4614450466418</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256293</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250943</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0123423106713</v>
+        <v>67.18221732366649</v>
       </c>
       <c r="K45" t="n">
-        <v>554.6861529154021</v>
+        <v>168.0354432859446</v>
       </c>
       <c r="L45" t="n">
-        <v>1103.750244288381</v>
+        <v>479.4600572923428</v>
       </c>
       <c r="M45" t="n">
-        <v>1335.413349768354</v>
+        <v>1146.494450307146</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.616533231044</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184311</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>224.860116260665</v>
+        <v>111.0682006494109</v>
       </c>
       <c r="C46" t="n">
-        <v>203.1924883572594</v>
+        <v>89.4005727460053</v>
       </c>
       <c r="D46" t="n">
-        <v>200.3444039694249</v>
+        <v>86.55248835817093</v>
       </c>
       <c r="E46" t="n">
-        <v>199.6998654115331</v>
+        <v>85.90794980027918</v>
       </c>
       <c r="F46" t="n">
-        <v>199.6998654115331</v>
+        <v>85.90794980027918</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5376844405795</v>
+        <v>64.74576882932563</v>
       </c>
       <c r="H46" t="n">
-        <v>173.1173655553928</v>
+        <v>59.32544994413892</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250943</v>
+        <v>59.32544994413892</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250943</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K46" t="n">
-        <v>175.0031963795616</v>
+        <v>175.0031963795615</v>
       </c>
       <c r="L46" t="n">
         <v>385.4977640966309</v>
@@ -7816,7 +7816,7 @@
         <v>617.8238953325997</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7831,25 +7831,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S46" t="n">
-        <v>1008.375896848522</v>
+        <v>1008.375896848523</v>
       </c>
       <c r="T46" t="n">
-        <v>804.9236097046578</v>
+        <v>930.7677209518071</v>
       </c>
       <c r="U46" t="n">
-        <v>663.0495942527932</v>
+        <v>641.6251504754412</v>
       </c>
       <c r="V46" t="n">
-        <v>555.6336610714076</v>
+        <v>441.8417454601532</v>
       </c>
       <c r="W46" t="n">
-        <v>413.4850460589482</v>
+        <v>299.693130447694</v>
       </c>
       <c r="X46" t="n">
-        <v>332.7640501854322</v>
+        <v>218.972134574178</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.2400260664034</v>
+        <v>145.4481104551492</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>322.1905410838074</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>85.27672443409958</v>
+        <v>26.05565968592754</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386413</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>233.7892003056228</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.672866058471044</v>
       </c>
       <c r="O12" t="n">
-        <v>244.4261905012767</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>55.58437101770807</v>
       </c>
       <c r="O14" t="n">
-        <v>55.58437101771253</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386413</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>360.682929492966</v>
+        <v>360.682929492962</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>168.0262174982057</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>55.58437101770909</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>308.3053528294402</v>
       </c>
       <c r="N18" t="n">
-        <v>370.869727656948</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>308.275970475955</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>55.58437101770909</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>379.7297835888754</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>304.9993059056983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.9198719253541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>44.86796315067923</v>
       </c>
       <c r="M23" t="n">
-        <v>369.0133757218447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>3.541519611592378</v>
+        <v>3.54151961159161</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>393.803204033797</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>65.47178824948574</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386413</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>93.51651551801967</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>317.1145657114159</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.1847738722188694</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>210.1530601324412</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>93.51651551802019</v>
+        <v>35.82251931754814</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>152.8868668716273</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,10 +10361,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>211.8883399628909</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>35.82251931754814</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.82251931754865</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>34.54206638321986</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>416.9382561970556</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>408.1220033598706</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>30.879884941139</v>
       </c>
       <c r="R35" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>93.51651551801962</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>174.1967209897183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.12672309410115</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>30.87988494113938</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.9382561970555</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>408.1220033598707</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>93.51651551801996</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>67.74091822884458</v>
       </c>
       <c r="M41" t="n">
-        <v>416.9382561970557</v>
+        <v>416.9382561970555</v>
       </c>
       <c r="N41" t="n">
-        <v>408.1220033598708</v>
+        <v>408.1220033598707</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>30.87988494113958</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>93.5165155180199</v>
+        <v>93.51651551801962</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>262.8249725754152</v>
       </c>
       <c r="L44" t="n">
-        <v>77.7604418710518</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386416</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>130.8004691755997</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.7689773079099</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>419.0214237900133</v>
       </c>
       <c r="O45" t="n">
-        <v>93.5165155180199</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164005</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679793</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>327.3073119374289</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>2.111971092281948</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040943</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
-        <v>67.19419370267218</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.3616362679792</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374288</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>120.7013002406138</v>
       </c>
       <c r="X14" t="n">
-        <v>222.6166640611093</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>13.42632660718624</v>
+        <v>13.42632660718914</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>13.42632660718922</v>
       </c>
       <c r="E20" t="n">
-        <v>13.42632660718832</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1168665.134802142</v>
+        <v>1168665.134802141</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1168665.134802142</v>
+        <v>1168665.134802141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547415</v>
+        <v>348192.4439547414</v>
       </c>
       <c r="C2" t="n">
         <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348192.4439547413</v>
+        <v>348192.4439547414</v>
       </c>
       <c r="E2" t="n">
-        <v>288048.0521498424</v>
+        <v>288048.0521498426</v>
       </c>
       <c r="F2" t="n">
-        <v>310444.5582653303</v>
+        <v>310444.5582653298</v>
       </c>
       <c r="G2" t="n">
-        <v>348488.5395631993</v>
+        <v>348488.5395631992</v>
       </c>
       <c r="H2" t="n">
         <v>348488.5395631992</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="J2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923207</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="O2" t="n">
+        <v>348942.7521923203</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923207</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923208</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266122001</v>
+        <v>753993.2266122003</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921661</v>
+        <v>48878.85800921633</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342599</v>
+        <v>63654.98704342602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970186606</v>
+        <v>920.0015970187211</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542157</v>
+        <v>75818.20182542162</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.987043426</v>
+        <v>63654.98704342604</v>
       </c>
       <c r="M3" t="n">
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583653</v>
+        <v>41782.42831583636</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>136703.2860371436</v>
       </c>
       <c r="F4" t="n">
-        <v>155828.6686718299</v>
+        <v>155828.6686718297</v>
       </c>
       <c r="G4" t="n">
-        <v>206726.2449558838</v>
+        <v>206726.2449558837</v>
       </c>
       <c r="H4" t="n">
         <v>206726.2449558837</v>
@@ -26439,7 +26439,7 @@
         <v>207114.1175233572</v>
       </c>
       <c r="J4" t="n">
-        <v>194662.9295016923</v>
+        <v>194662.9295016922</v>
       </c>
       <c r="K4" t="n">
         <v>194662.9295016923</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652592</v>
+        <v>49400.51786652593</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882801</v>
+        <v>59772.47212882796</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102023</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.7360110202</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.08456227691</v>
+        <v>66672.0845622769</v>
       </c>
       <c r="J5" t="n">
+        <v>77601.21311784605</v>
+      </c>
+      <c r="K5" t="n">
         <v>77601.21311784604</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77601.21311784603</v>
       </c>
       <c r="L5" t="n">
         <v>77601.21311784603</v>
@@ -26509,7 +26509,7 @@
         <v>68267.74432235741</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235744</v>
+        <v>68267.74432235741</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121709.0357645066</v>
+        <v>-121713.4493423749</v>
       </c>
       <c r="C6" t="n">
-        <v>-121709.0357645069</v>
+        <v>-121713.4493423749</v>
       </c>
       <c r="D6" t="n">
-        <v>-121709.0357645069</v>
+        <v>-121713.4493423749</v>
       </c>
       <c r="E6" t="n">
-        <v>-652048.9783660272</v>
+        <v>-652407.1824839242</v>
       </c>
       <c r="F6" t="n">
-        <v>45964.55945545573</v>
+        <v>45738.09949117937</v>
       </c>
       <c r="G6" t="n">
-        <v>11645.57155286937</v>
+        <v>11642.89971387452</v>
       </c>
       <c r="H6" t="n">
-        <v>75300.55859629542</v>
+        <v>75297.88675730051</v>
       </c>
       <c r="I6" t="n">
-        <v>74236.5485096677</v>
+        <v>74236.54850966763</v>
       </c>
       <c r="J6" t="n">
-        <v>860.4077473604266</v>
+        <v>860.4077473603538</v>
       </c>
       <c r="K6" t="n">
-        <v>76678.60957278233</v>
+        <v>76678.60957278208</v>
       </c>
       <c r="L6" t="n">
-        <v>13023.62252935633</v>
+        <v>13023.6225293563</v>
       </c>
       <c r="M6" t="n">
-        <v>-29360.70510543729</v>
+        <v>-29360.70510543743</v>
       </c>
       <c r="N6" t="n">
-        <v>34157.68138958022</v>
+        <v>34157.68138958036</v>
       </c>
       <c r="O6" t="n">
-        <v>75940.10970541663</v>
+        <v>75940.10970541614</v>
       </c>
       <c r="P6" t="n">
-        <v>75940.10970541675</v>
+        <v>75940.10970541672</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G2" t="n">
         <v>159.1374676085651</v>
@@ -26707,10 +26707,10 @@
         <v>159.1374676085651</v>
       </c>
       <c r="J2" t="n">
+        <v>79.56873380428253</v>
+      </c>
+      <c r="K2" t="n">
         <v>79.56873380428254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79.56873380428256</v>
       </c>
       <c r="L2" t="n">
         <v>79.56873380428257</v>
@@ -26722,7 +26722,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="O2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="P2" t="n">
         <v>145.7958694742563</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678452</v>
       </c>
       <c r="F3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678452</v>
       </c>
       <c r="G3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="H3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="I3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="J3" t="n">
+        <v>690.1599463678452</v>
+      </c>
+      <c r="K3" t="n">
         <v>690.1599463678451</v>
       </c>
-      <c r="K3" t="n">
-        <v>690.159946367845</v>
-      </c>
       <c r="L3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="M3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="N3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="O3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="P3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678451</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>455.0290650249124</v>
       </c>
       <c r="F4" t="n">
-        <v>625.6204180233019</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="G4" t="n">
-        <v>625.6204180233019</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="H4" t="n">
-        <v>625.6204180233015</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426552</v>
+        <v>629.0800981426551</v>
       </c>
       <c r="J4" t="n">
+        <v>918.8562895532039</v>
+      </c>
+      <c r="K4" t="n">
         <v>918.8562895532037</v>
       </c>
-      <c r="K4" t="n">
-        <v>918.8562895532036</v>
-      </c>
       <c r="L4" t="n">
-        <v>918.8562895532036</v>
+        <v>918.8562895532035</v>
       </c>
       <c r="M4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563678</v>
+        <v>673.7721141563673</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.56873380428249</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M2" t="n">
         <v>66.22713566997373</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678452</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>455.0290650249124</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983895</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45968011935372</v>
+        <v>3.459680119353948</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105486</v>
+        <v>289.7761914105488</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280762</v>
+        <v>209.9448896280761</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983894</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428249</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>455.0290650249124</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983895</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C12" t="n">
-        <v>1.248480811745992</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56873380428252</v>
+        <v>1.248480811745338</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084447</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>22.04208629079621</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,13 +28463,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>22.04208629079324</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="17">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.712472102941131</v>
       </c>
       <c r="S18" t="n">
-        <v>101.6108200950754</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.1374676085651</v>
+        <v>105.9050966109799</v>
       </c>
       <c r="C19" t="n">
         <v>159.1374676085651</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.2990581765198</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I19" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
         <v>159.1374676085651</v>
@@ -28776,19 +28776,19 @@
         <v>159.1374676085651</v>
       </c>
       <c r="U19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>159.1374676085651</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.62189349699341</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.712472102941014</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084475</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7525460241409</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="T22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W22" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>111.2745406144932</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.18449348789022</v>
       </c>
       <c r="H24" t="n">
-        <v>49.89876232503683</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29196,13 +29196,13 @@
         <v>159.1374676085651</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29211,7 +29211,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1619851705912</v>
+        <v>80.07355862417057</v>
       </c>
       <c r="I25" t="n">
         <v>118.0234404586545</v>
@@ -29241,19 +29241,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="T25" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="U25" t="n">
-        <v>111.2745406144938</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W25" t="n">
         <v>159.1374676085651</v>
@@ -29262,7 +29262,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="32">
@@ -29928,7 +29928,7 @@
         <v>79.56873380428257</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428215</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K34" t="n">
         <v>79.56873380428257</v>
@@ -30144,10 +30144,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>145.7958694742563</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>145.7958694742563</v>
@@ -30159,46 +30159,46 @@
         <v>145.7958694742563</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21.21019933957805</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.369444003513252</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>121.3338652339668</v>
+      </c>
+      <c r="S37" t="n">
         <v>145.7958694742563</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118.0234404586545</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.369444003513266</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>121.3338652339669</v>
-      </c>
-      <c r="S37" t="n">
-        <v>48.98262835518025</v>
       </c>
       <c r="T37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="V37" t="n">
         <v>145.7958694742563</v>
@@ -30390,19 +30390,19 @@
         <v>145.7958694742563</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="H40" t="n">
-        <v>53.97725090736846</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I40" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835517991</v>
       </c>
       <c r="V40" t="n">
         <v>145.7958694742563</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="C41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="D41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="E41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="F41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="G41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="I41" t="n">
         <v>103.5115023046919</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="T41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="V41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="W41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="X41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="D43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="E43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="H43" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835517882</v>
       </c>
       <c r="I43" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>48.98262835517997</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="V43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
     </row>
     <row r="44">
@@ -30873,10 +30873,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,19 +30900,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>21.21019933957882</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>145.7958694742563</v>
+        <v>54.35207235869296</v>
       </c>
       <c r="W46" t="n">
         <v>145.7958694742563</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207416</v>
       </c>
       <c r="H11" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583796</v>
       </c>
       <c r="I11" t="n">
         <v>106.964387265714</v>
@@ -31762,37 +31762,37 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860856</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865845</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930876</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405439</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688607</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R11" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198906</v>
       </c>
       <c r="T11" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979894</v>
       </c>
       <c r="H12" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856213</v>
       </c>
       <c r="J12" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991487</v>
       </c>
       <c r="K12" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824546</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O12" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680802</v>
       </c>
       <c r="P12" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562571</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782054</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455869</v>
       </c>
       <c r="S12" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T12" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151411</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.0976641433539404</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,25 +31914,25 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I13" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315954</v>
       </c>
       <c r="K13" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L13" t="n">
-        <v>185.0307502114711</v>
+        <v>185.0307502114712</v>
       </c>
       <c r="M13" t="n">
         <v>195.0889828724713</v>
       </c>
       <c r="N13" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P13" t="n">
         <v>150.5227528930788</v>
@@ -31941,16 +31941,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S13" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276839</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864059</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207416</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583796</v>
       </c>
       <c r="I14" t="n">
         <v>106.964387265714</v>
@@ -31999,37 +31999,37 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860856</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865845</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930876</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405439</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688607</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R14" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198906</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979894</v>
       </c>
       <c r="H15" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856213</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991487</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824546</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680802</v>
       </c>
       <c r="P15" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562571</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782054</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455869</v>
       </c>
       <c r="S15" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151411</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.0976641433539404</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,25 +32151,25 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315954</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0307502114711</v>
+        <v>185.0307502114712</v>
       </c>
       <c r="M16" t="n">
         <v>195.0889828724713</v>
       </c>
       <c r="N16" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P16" t="n">
         <v>150.5227528930788</v>
@@ -32178,16 +32178,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S16" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276839</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,7 +32239,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M17" t="n">
         <v>487.1800911865844</v>
@@ -32248,25 +32248,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O17" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P17" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R17" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T17" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H18" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
         <v>51.11090168856212</v>
@@ -32315,16 +32315,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L18" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O18" t="n">
         <v>353.1991189680801</v>
@@ -32336,16 +32336,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R18" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S18" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T18" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I19" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K19" t="n">
         <v>144.5941658128042</v>
@@ -32403,10 +32403,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N19" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O19" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P19" t="n">
         <v>150.5227528930788</v>
@@ -32415,16 +32415,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S19" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T19" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M20" t="n">
         <v>487.1800911865844</v>
@@ -32485,25 +32485,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O20" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P20" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R20" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T20" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H21" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
         <v>51.11090168856212</v>
@@ -32552,16 +32552,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L21" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O21" t="n">
         <v>353.1991189680801</v>
@@ -32573,16 +32573,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R21" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S21" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T21" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K22" t="n">
         <v>144.5941658128042</v>
@@ -32640,10 +32640,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N22" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O22" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P22" t="n">
         <v>150.5227528930788</v>
@@ -32652,16 +32652,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S22" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T22" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32713,7 +32713,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M23" t="n">
         <v>487.1800911865844</v>
@@ -32722,25 +32722,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O23" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P23" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R23" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T23" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H24" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
         <v>51.11090168856212</v>
@@ -32789,16 +32789,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K24" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L24" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O24" t="n">
         <v>353.1991189680801</v>
@@ -32810,16 +32810,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R24" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S24" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T24" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K25" t="n">
         <v>144.5941658128042</v>
@@ -32877,10 +32877,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N25" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O25" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P25" t="n">
         <v>150.5227528930788</v>
@@ -32889,16 +32889,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S25" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T25" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207416</v>
       </c>
       <c r="H26" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583796</v>
       </c>
       <c r="I26" t="n">
         <v>106.964387265714</v>
@@ -32947,22 +32947,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860856</v>
       </c>
       <c r="L26" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865845</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930876</v>
       </c>
       <c r="O26" t="n">
-        <v>467.4741172405438</v>
+        <v>467.4741172405439</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688607</v>
       </c>
       <c r="Q26" t="n">
         <v>299.616120234495</v>
@@ -32971,7 +32971,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S26" t="n">
-        <v>63.22420011198904</v>
+        <v>63.22420011198906</v>
       </c>
       <c r="T26" t="n">
         <v>12.14542779990047</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979894</v>
       </c>
       <c r="H27" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856213</v>
       </c>
       <c r="J27" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991487</v>
       </c>
       <c r="K27" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3242277824545</v>
+        <v>322.3242277824546</v>
       </c>
       <c r="M27" t="n">
         <v>376.1371707704756</v>
@@ -33038,25 +33038,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680802</v>
       </c>
       <c r="P27" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562571</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782054</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455867</v>
+        <v>92.16890755455869</v>
       </c>
       <c r="S27" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T27" t="n">
-        <v>5.98355651615141</v>
+        <v>5.983556516151411</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394039</v>
+        <v>0.0976641433539404</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,13 +33102,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315952</v>
+        <v>87.98973611315954</v>
       </c>
       <c r="K28" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L28" t="n">
-        <v>185.0307502114711</v>
+        <v>185.0307502114712</v>
       </c>
       <c r="M28" t="n">
         <v>195.0889828724713</v>
@@ -33132,10 +33132,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276838</v>
+        <v>5.317625816276839</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864058</v>
+        <v>0.06788458488864059</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33187,7 +33187,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M29" t="n">
         <v>487.1800911865844</v>
@@ -33196,25 +33196,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P29" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R29" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H30" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
         <v>51.11090168856212</v>
@@ -33263,16 +33263,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O30" t="n">
         <v>353.1991189680801</v>
@@ -33284,16 +33284,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K31" t="n">
         <v>144.5941658128042</v>
@@ -33351,10 +33351,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N31" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P31" t="n">
         <v>150.5227528930788</v>
@@ -33363,16 +33363,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S31" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,7 +33424,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M32" t="n">
         <v>487.1800911865844</v>
@@ -33433,25 +33433,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P32" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R32" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T32" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H33" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
         <v>51.11090168856212</v>
@@ -33500,16 +33500,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K33" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O33" t="n">
         <v>353.1991189680801</v>
@@ -33521,16 +33521,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S33" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I34" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K34" t="n">
         <v>144.5941658128042</v>
@@ -33588,10 +33588,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N34" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O34" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P34" t="n">
         <v>150.5227528930788</v>
@@ -33600,16 +33600,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S34" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M35" t="n">
         <v>487.1800911865844</v>
@@ -33670,25 +33670,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P35" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R35" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T35" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H36" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
         <v>51.11090168856212</v>
@@ -33737,16 +33737,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K36" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O36" t="n">
         <v>353.1991189680801</v>
@@ -33758,16 +33758,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S36" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I37" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K37" t="n">
         <v>144.5941658128042</v>
@@ -33825,10 +33825,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N37" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O37" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P37" t="n">
         <v>150.5227528930788</v>
@@ -33837,16 +33837,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S37" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,7 +33898,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M38" t="n">
         <v>487.1800911865844</v>
@@ -33907,25 +33907,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P38" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R38" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H39" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
         <v>51.11090168856212</v>
@@ -33974,16 +33974,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O39" t="n">
         <v>353.1991189680801</v>
@@ -33995,16 +33995,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S39" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I40" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K40" t="n">
         <v>144.5941658128042</v>
@@ -34062,10 +34062,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N40" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
         <v>150.5227528930788</v>
@@ -34074,16 +34074,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S40" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34135,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M41" t="n">
         <v>487.1800911865844</v>
@@ -34144,25 +34144,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P41" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R41" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H42" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
         <v>51.11090168856212</v>
@@ -34211,16 +34211,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O42" t="n">
         <v>353.1991189680801</v>
@@ -34232,16 +34232,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128042</v>
@@ -34299,10 +34299,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N43" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P43" t="n">
         <v>150.5227528930788</v>
@@ -34311,16 +34311,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S43" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M44" t="n">
         <v>487.1800911865844</v>
@@ -34381,25 +34381,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P44" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.6161202344949</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R44" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H45" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
         <v>51.11090168856212</v>
@@ -34448,16 +34448,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O45" t="n">
         <v>353.1991189680801</v>
@@ -34469,16 +34469,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151409</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128042</v>
@@ -34536,10 +34536,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N46" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P46" t="n">
         <v>150.5227528930788</v>
@@ -34548,16 +34548,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S46" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210928</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K11" t="n">
-        <v>455.0290650249124</v>
+        <v>132.8385239411051</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619474</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593118</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964967</v>
       </c>
       <c r="O11" t="n">
-        <v>237.375905818857</v>
+        <v>237.3759058188571</v>
       </c>
       <c r="P11" t="n">
-        <v>253.0220723476906</v>
+        <v>193.8010075995187</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.31043036004544</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K12" t="n">
-        <v>101.8719454164424</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L12" t="n">
-        <v>417.559048308203</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M12" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484573</v>
       </c>
       <c r="N12" t="n">
-        <v>254.7506903663539</v>
+        <v>258.4235564248251</v>
       </c>
       <c r="O12" t="n">
-        <v>455.0290650249124</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4990241419267</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.51270779218379</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076925</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K13" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M13" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N13" t="n">
-        <v>314.1511090885921</v>
+        <v>314.1511090885922</v>
       </c>
       <c r="O13" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413273</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L14" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619474</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593118</v>
       </c>
       <c r="N14" t="n">
-        <v>265.6501107964966</v>
+        <v>321.2344818142048</v>
       </c>
       <c r="O14" t="n">
-        <v>292.9602768365695</v>
+        <v>237.3759058188571</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850738</v>
       </c>
       <c r="Q14" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K15" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L15" t="n">
-        <v>183.7698480025803</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M15" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484573</v>
       </c>
       <c r="N15" t="n">
-        <v>615.4336198593198</v>
+        <v>615.433619859316</v>
       </c>
       <c r="O15" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P15" t="n">
-        <v>467.9617927818639</v>
+        <v>467.961792781864</v>
       </c>
       <c r="Q15" t="n">
-        <v>259.5899955280329</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K16" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M16" t="n">
         <v>314.2415936385945</v>
@@ -35820,10 +35820,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P16" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.62084245413278</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>222.463580300315</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K17" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L17" t="n">
-        <v>202.0724422619473</v>
+        <v>257.6568132796564</v>
       </c>
       <c r="M17" t="n">
         <v>256.8338579593117</v>
@@ -35896,13 +35896,13 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O17" t="n">
-        <v>618.1760870816023</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P17" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L18" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M18" t="n">
-        <v>234.0031368484572</v>
+        <v>542.3084896778975</v>
       </c>
       <c r="N18" t="n">
-        <v>625.6204180233019</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O18" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P18" t="n">
-        <v>457.7749946178818</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q18" t="n">
         <v>259.5899955280329</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L19" t="n">
         <v>212.6207754717873</v>
@@ -36054,13 +36054,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O19" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P19" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L20" t="n">
-        <v>202.0724422619473</v>
+        <v>257.6568132796564</v>
       </c>
       <c r="M20" t="n">
         <v>256.8338579593117</v>
@@ -36133,13 +36133,13 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O20" t="n">
-        <v>617.1056894077324</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P20" t="n">
         <v>489.5440560850737</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K21" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L21" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M21" t="n">
-        <v>234.0031368484572</v>
+        <v>539.0024427541556</v>
       </c>
       <c r="N21" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O21" t="n">
-        <v>210.6028745236356</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P21" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4325797175379</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L22" t="n">
         <v>212.6207754717873</v>
@@ -36291,13 +36291,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O22" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P22" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K23" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L23" t="n">
-        <v>202.0724422619473</v>
+        <v>246.9404054126266</v>
       </c>
       <c r="M23" t="n">
-        <v>625.8472336811564</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N23" t="n">
         <v>265.6501107964966</v>
@@ -36376,10 +36376,10 @@
         <v>489.5440560850737</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R23" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K24" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L24" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M24" t="n">
-        <v>237.5446564600496</v>
+        <v>237.5446564600489</v>
       </c>
       <c r="N24" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O24" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818639</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L25" t="n">
         <v>212.6207754717873</v>
@@ -36528,13 +36528,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O25" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P25" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K26" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L26" t="n">
         <v>619.7336568123978</v>
       </c>
       <c r="M26" t="n">
-        <v>256.8338579593117</v>
+        <v>706.3473914521443</v>
       </c>
       <c r="N26" t="n">
-        <v>659.4533148302936</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O26" t="n">
-        <v>618.1760870816024</v>
+        <v>618.1760870816025</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850737</v>
+        <v>233.2171361630769</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004556</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911828</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060395</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M27" t="n">
-        <v>327.5196523664769</v>
+        <v>699.7082005984572</v>
       </c>
       <c r="N27" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O27" t="n">
-        <v>210.6028745236357</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818639</v>
+        <v>466.6135898533428</v>
       </c>
       <c r="Q27" t="n">
-        <v>259.5899955280329</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>54.43736280210928</v>
+        <v>54.62213667432817</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122697</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L29" t="n">
-        <v>619.7336568123977</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M29" t="n">
         <v>706.3473914521442</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9970352084807</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P29" t="n">
-        <v>377.8984080460323</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.31043036004544</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R29" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K30" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L30" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M30" t="n">
-        <v>327.5196523664774</v>
+        <v>269.8256561660054</v>
       </c>
       <c r="N30" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O30" t="n">
-        <v>210.6028745236356</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P30" t="n">
         <v>467.9617927818639</v>
       </c>
       <c r="Q30" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.533977974183</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K32" t="n">
-        <v>132.8385239411049</v>
+        <v>285.7253908127323</v>
       </c>
       <c r="L32" t="n">
-        <v>619.7336568123977</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M32" t="n">
         <v>706.3473914521442</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9970352084807</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O32" t="n">
-        <v>449.2642457817478</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q32" t="n">
-        <v>289.6254210199501</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R32" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.41459413248191</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K33" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L33" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484572</v>
+        <v>269.8256561660054</v>
       </c>
       <c r="N33" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O33" t="n">
-        <v>604.4651938003651</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P33" t="n">
         <v>467.9617927818639</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.33522710973244</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076888</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K34" t="n">
         <v>201.8934077912039</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M34" t="n">
         <v>314.2415936385945</v>
@@ -37242,10 +37242,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P34" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413278</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210928</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K35" t="n">
-        <v>456.9839365122697</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L35" t="n">
-        <v>236.6145086451671</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8338579593117</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N35" t="n">
-        <v>265.6501107964966</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O35" t="n">
-        <v>618.1760870816023</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P35" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q35" t="n">
-        <v>289.6254210199501</v>
+        <v>108.1903153011845</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8719454164424</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L36" t="n">
         <v>554.6101933060395</v>
@@ -37394,16 +37394,16 @@
         <v>234.0031368484572</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O36" t="n">
-        <v>604.4651938003651</v>
+        <v>304.1193900416553</v>
       </c>
       <c r="P36" t="n">
         <v>467.9617927818639</v>
       </c>
       <c r="Q36" t="n">
-        <v>223.7094287819021</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L37" t="n">
         <v>212.6207754717873</v>
@@ -37476,13 +37476,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O37" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P37" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.56408589621043</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K38" t="n">
-        <v>456.9839365122697</v>
+        <v>163.7184088822444</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619473</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593117</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N38" t="n">
-        <v>265.6501107964966</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O38" t="n">
-        <v>618.1760870816023</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199501</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R38" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K39" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L39" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M39" t="n">
-        <v>327.5196523664771</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N39" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O39" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P39" t="n">
         <v>467.9617927818639</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L40" t="n">
         <v>212.6207754717873</v>
@@ -37713,13 +37713,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O40" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P40" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210928</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8385239411049</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L41" t="n">
-        <v>619.7336568123977</v>
+        <v>269.8133604907919</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N41" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O41" t="n">
-        <v>237.375905818857</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P41" t="n">
-        <v>198.6252328547306</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q41" t="n">
-        <v>77.31043036004544</v>
+        <v>77.3104303600455</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K42" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L42" t="n">
         <v>554.6101933060395</v>
@@ -37868,10 +37868,10 @@
         <v>234.0031368484572</v>
       </c>
       <c r="N42" t="n">
-        <v>254.7506903663539</v>
+        <v>254.750690366354</v>
       </c>
       <c r="O42" t="n">
-        <v>304.1193900416555</v>
+        <v>304.1193900416553</v>
       </c>
       <c r="P42" t="n">
         <v>467.9617927818639</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L43" t="n">
         <v>212.6207754717873</v>
@@ -37950,13 +37950,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O43" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P43" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210931</v>
       </c>
       <c r="K44" t="n">
-        <v>456.9839365122697</v>
+        <v>395.6634965165202</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8328841329991</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M44" t="n">
         <v>256.8338579593117</v>
@@ -38029,13 +38029,13 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O44" t="n">
-        <v>618.1760870816023</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P44" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135911</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.31043036004544</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248194</v>
       </c>
       <c r="K45" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L45" t="n">
-        <v>554.6101933060395</v>
+        <v>314.57031717818</v>
       </c>
       <c r="M45" t="n">
-        <v>234.0031368484572</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N45" t="n">
-        <v>254.7506903663539</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="O45" t="n">
-        <v>304.1193900416555</v>
+        <v>604.4651938003652</v>
       </c>
       <c r="P45" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419268</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L46" t="n">
         <v>212.6207754717873</v>
@@ -38187,13 +38187,13 @@
         <v>234.5823752843096</v>
       </c>
       <c r="O46" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P46" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
